--- a/medicine/Enfance/Cledwyn_Hughes/Cledwyn_Hughes.xlsx
+++ b/medicine/Enfance/Cledwyn_Hughes/Cledwyn_Hughes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cledwyn Hughes, né le 21 mai 1920 à Llansantffraid-ym-Mechain (en), une petite paroisse du Montgomeryshire (aujourd'hui le Powys), au pays de Galles, et mort en janvier 1978 à Arthog, dans le Meirionnydd (aujourd'hui le Gwynedd), est un écrivain gallois, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études supérieures à l'Université de Liverpool, où il obtient en 1945 des diplômes en chimie et en pharmacologie. Il travaille ensuite comme pharmacien dans un hôpital de cancéreux de Liverpool, puis dans un hôpital général à Wrexham, au pays de Galles. Il abandonne cette carrière pour se consacrer entièrement à l'écriture après avoir remporté un concours de nouvelles du New York Herald Tribune.
 Dès 1946, il commence à publier des nouvelles, appartenant pour l'essentiel au genre policier, dans des pulps américains, et surtout dans Argosy. En 1947 paraît aux États-Unis son roman le plus connu, He Dared Not Look Behind, traduit en France aux éditions Gallimard en 1963 sous le titre La Jambe de Caïn. Il s'agit d'un récit qui mêle adroitement intrigue policière et le genre fantastique sous le mode de la fable : William Sterrill, dentiste sans histoire d'un petit village gallois vit le parfait amour avec son épouse Doreen. Mais un accident de voiture prive cette dernière d'une de ses jambes. Une prothèse en acier permet à la jeune femme de marcher de nouveau, mais le mari, victime d'étranges hallucinations, devient jaloux de ce membre auquel Doreen semble s'attacher. La prière ne parvient pas à repousser la démence qui le gagne, et William tue sa femme. Pourtant, sa folie ne s'arrête pas là.
@@ -547,19 +561,133 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-The Different Drummer (1947)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Different Drummer (1947)
 He Dared Not Look Behind ou The Inn Closes for Christmas (1947) Publié en français sous le titre La Jambe de Caïn, traduit par Janine Hérisson, Paris, Gallimard, coll. Panique no 16, 1963 ; réédition de la même traduction sous le titre Embrasse-moi, assassin !, Paris, Gallimard, coll. Cible no 3, 1963 ; réédition sous le titre La Jambe de Caïn, Paris, Série noire no 1406, 1971  (ISBN 2-266-14871-0) ; réédition, Paris, Gallimard, Carré noir no 416, 1982  (ISBN 2-07-043416-8)
 Wennon (1948)
 The Civil Strangers (1949)
-After the Holiday (1950)
-Littérature d'enfance et de jeunesse
-Roman
-Gold and the Moonspray (1953)
-Recueil de nouvelles
-The King Who Lived on Jelly (1961)
-Nouvelles
-The Fifteen Shilling Marvel (1946)
+After the Holiday (1950)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cledwyn_Hughes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cledwyn_Hughes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gold and the Moonspray (1953)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cledwyn_Hughes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cledwyn_Hughes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The King Who Lived on Jelly (1961)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cledwyn_Hughes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cledwyn_Hughes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Fifteen Shilling Marvel (1946)
 The Best Dressed Horse (1948)
 The Little Bishop (1948)
 A Bucketful of Roses (1948)
@@ -582,9 +710,43 @@
 Old Strollers Carol Party (1969)
 The Yard Man (1970)
 The Race for the White Rose (1973)
-Night of the Summer Storm (1973)
-Essais
-A Wanderer in North Wales (1949)
+Night of the Summer Storm (1973)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cledwyn_Hughes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cledwyn_Hughes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A Wanderer in North Wales (1949)
 Poaching Down the Dee (1953)
 The Northern Marches (1953)
 West with the Tinkers. A journey Through Wales with Vagrants (1954)
@@ -598,31 +760,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Cledwyn_Hughes</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cledwyn_Hughes</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 1012-1013.
 Claude Mesplède et Jean-Jacques Schleret, SN, voyage au bout de la Noire : inventaire de 732 auteurs et de leurs œuvres publiés en séries Noire et Blème : suivi d'une filmographie complète, Paris, Futuropolis, 1982, 476 p. (OCLC 11972030), p. 197.</t>
